--- a/data/trans_orig/P19C07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C07-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>3728</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9484</v>
+        <v>8622</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01946992807392576</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005048123661701197</v>
+        <v>0.005021422810060127</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0495291815820391</v>
+        <v>0.04502644277161247</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -765,19 +765,19 @@
         <v>3847</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9748</v>
+        <v>9153</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01911845422777428</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004953425781224654</v>
+        <v>0.004902350620533927</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04844366081913388</v>
+        <v>0.04548520572978922</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -786,19 +786,19 @@
         <v>7575</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3715</v>
+        <v>2959</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15039</v>
+        <v>14491</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01928983747529706</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009460044702620348</v>
+        <v>0.007535689604299032</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03829384719339761</v>
+        <v>0.03690022154943384</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>187765</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>182009</v>
+        <v>182871</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>190526</v>
+        <v>190531</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9805300719260742</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9504708184179609</v>
+        <v>0.9549735572283875</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9949518763382988</v>
+        <v>0.9949785771899399</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>186</v>
@@ -836,19 +836,19 @@
         <v>197375</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>191474</v>
+        <v>192069</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>200225</v>
+        <v>200236</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9808815457722257</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9515563391808665</v>
+        <v>0.9545147942702104</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9950465742187754</v>
+        <v>0.9950976493794661</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>373</v>
@@ -857,19 +857,19 @@
         <v>385141</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>377677</v>
+        <v>378225</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>389001</v>
+        <v>389757</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9807101625247029</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9617061528066025</v>
+        <v>0.9630997784505662</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9905399552973796</v>
+        <v>0.992464310395701</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>12387</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6322</v>
+        <v>6944</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21861</v>
+        <v>22440</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03022999050834013</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01542782276770997</v>
+        <v>0.01694647334556128</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05335058884443505</v>
+        <v>0.05476517725044999</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -982,19 +982,19 @@
         <v>18702</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11322</v>
+        <v>11689</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27491</v>
+        <v>29483</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04238877138679056</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02566263437060624</v>
+        <v>0.02649254644895626</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06230972566100734</v>
+        <v>0.06682384451175193</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -1003,19 +1003,19 @@
         <v>31089</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20838</v>
+        <v>21203</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43745</v>
+        <v>43630</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0365340306277514</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02448803403926503</v>
+        <v>0.0249161044500368</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05140655004456117</v>
+        <v>0.0512722368633497</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>397369</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>387895</v>
+        <v>387316</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>403434</v>
+        <v>402812</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9697700094916599</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9466494111555649</v>
+        <v>0.9452348227495498</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9845721772322901</v>
+        <v>0.9830535266544382</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>420</v>
@@ -1053,19 +1053,19 @@
         <v>422499</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>413710</v>
+        <v>411718</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>429879</v>
+        <v>429512</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9576112286132095</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9376902743389927</v>
+        <v>0.9331761554882483</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9743373656293938</v>
+        <v>0.9735074535510437</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>793</v>
@@ -1074,19 +1074,19 @@
         <v>819868</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>807212</v>
+        <v>807327</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>830119</v>
+        <v>829754</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9634659693722486</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9485934499554388</v>
+        <v>0.9487277631366503</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.975511965960735</v>
+        <v>0.9750838955499632</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>3998</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9220</v>
+        <v>9106</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01690431129326768</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004217766692362309</v>
+        <v>0.004222613940177012</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03897847256553828</v>
+        <v>0.03849623198790991</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1199,19 +1199,19 @@
         <v>5774</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2806</v>
+        <v>1933</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12437</v>
+        <v>12595</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01999315543316918</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009715048368980968</v>
+        <v>0.006692016109729497</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04306375413364119</v>
+        <v>0.04361104637955074</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -1220,19 +1220,19 @@
         <v>9773</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4924</v>
+        <v>4911</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17821</v>
+        <v>16763</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0186023958908791</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009372538110408377</v>
+        <v>0.009347902261839326</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03392316043793229</v>
+        <v>0.03190840479268107</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>232539</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>227317</v>
+        <v>227431</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>235539</v>
+        <v>235538</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9830956887067324</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9610215274344617</v>
+        <v>0.9615037680120903</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9957822333076377</v>
+        <v>0.995777386059823</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>282</v>
@@ -1270,19 +1270,19 @@
         <v>283032</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>276369</v>
+        <v>276211</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>286000</v>
+        <v>286873</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9800068445668308</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9569362458663587</v>
+        <v>0.9563889536204493</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.990284951631019</v>
+        <v>0.9933079838902705</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>509</v>
@@ -1291,19 +1291,19 @@
         <v>515570</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>507522</v>
+        <v>508580</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>520419</v>
+        <v>520432</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9813976041091209</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9660768395620678</v>
+        <v>0.9680915952073189</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9906274618895916</v>
+        <v>0.9906520977381607</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>8198</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3835</v>
+        <v>3654</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16471</v>
+        <v>16235</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03064156294025449</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01433627161545328</v>
+        <v>0.01365905104307078</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06156788006807718</v>
+        <v>0.06068364164926025</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1416,19 +1416,19 @@
         <v>18313</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11238</v>
+        <v>11564</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28555</v>
+        <v>27167</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06113800739600101</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03751689035473794</v>
+        <v>0.03860669917356468</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09533136301816632</v>
+        <v>0.09069630674856545</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -1437,19 +1437,19 @@
         <v>26510</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17775</v>
+        <v>17548</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36793</v>
+        <v>37647</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04675033754821266</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03134502664144483</v>
+        <v>0.03094606860076338</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06488346214298615</v>
+        <v>0.06638916574121338</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>259333</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>251060</v>
+        <v>251296</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>263696</v>
+        <v>263877</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9693584370597456</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9384321199319228</v>
+        <v>0.9393163583507417</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9856637283845467</v>
+        <v>0.9863409489569293</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>289</v>
@@ -1487,19 +1487,19 @@
         <v>281221</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>270979</v>
+        <v>272367</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>288296</v>
+        <v>287970</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9388619926039989</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9046686369818336</v>
+        <v>0.9093036932514348</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9624831096452616</v>
+        <v>0.9613933008264354</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>549</v>
@@ -1508,19 +1508,19 @@
         <v>540555</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>530272</v>
+        <v>529418</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>549290</v>
+        <v>549517</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9532496624517873</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9351165378570139</v>
+        <v>0.9336108342587865</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9686549733585551</v>
+        <v>0.9690539313992366</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>8242</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4335</v>
+        <v>3690</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16024</v>
+        <v>14647</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04840423381917582</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02545845800407081</v>
+        <v>0.02167335636829633</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09410544799400682</v>
+        <v>0.0860186018354262</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1633,19 +1633,19 @@
         <v>6623</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2659</v>
+        <v>2573</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13905</v>
+        <v>14858</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03808593686113106</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01529088954785157</v>
+        <v>0.01479481418328075</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07995771988145686</v>
+        <v>0.08543449827285914</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -1654,19 +1654,19 @@
         <v>14866</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8068</v>
+        <v>9080</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22972</v>
+        <v>24419</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04319070585082992</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02344220448493689</v>
+        <v>0.02638215967679293</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06674459141829443</v>
+        <v>0.07094825628459057</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>162036</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>154254</v>
+        <v>155631</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>165943</v>
+        <v>166588</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9515957661808242</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9058945520059929</v>
+        <v>0.9139813981645746</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9745415419959291</v>
+        <v>0.9783266436317037</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>160</v>
@@ -1704,19 +1704,19 @@
         <v>167283</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>160001</v>
+        <v>159048</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>171247</v>
+        <v>171333</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.961914063138869</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9200422801185428</v>
+        <v>0.9145655017271447</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9847091104521484</v>
+        <v>0.9852051858167193</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>322</v>
@@ -1725,19 +1725,19 @@
         <v>329318</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>321212</v>
+        <v>319765</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>336116</v>
+        <v>335104</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.95680929414917</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9332554085817056</v>
+        <v>0.9290517437154094</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9765577955150632</v>
+        <v>0.9736178403232071</v>
       </c>
     </row>
     <row r="18">
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5718</v>
+        <v>7704</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01000734800574682</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03021327128838876</v>
+        <v>0.04070592892996595</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -1850,19 +1850,19 @@
         <v>3943</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1013</v>
+        <v>1023</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9299</v>
+        <v>9805</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01928247676489606</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004955432355096539</v>
+        <v>0.005004358958243834</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04547313984557249</v>
+        <v>0.04795028016446239</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -1874,16 +1874,16 @@
         <v>1976</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13066</v>
+        <v>11781</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01482414514306758</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005019270314150504</v>
+        <v>0.005018354314523936</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03318339382323097</v>
+        <v>0.02991988702103008</v>
       </c>
     </row>
     <row r="20">
@@ -1900,7 +1900,7 @@
         <v>187376</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>183552</v>
+        <v>181566</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>189270</v>
@@ -1909,7 +1909,7 @@
         <v>0.9899926519942531</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9697867287116112</v>
+        <v>0.9592940710700341</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1921,19 +1921,19 @@
         <v>200545</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>195189</v>
+        <v>194683</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>203475</v>
+        <v>203465</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.980717523235104</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9545268601544289</v>
+        <v>0.9520497198355381</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9950445676449035</v>
+        <v>0.9949956410417562</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>379</v>
@@ -1942,7 +1942,7 @@
         <v>387921</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>380692</v>
+        <v>381977</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>391782</v>
@@ -1951,10 +1951,10 @@
         <v>0.9851758548569324</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9668166061767686</v>
+        <v>0.9700801129789699</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9949807296858495</v>
+        <v>0.994981645685476</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>17253</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10533</v>
+        <v>10963</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27156</v>
+        <v>28208</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03715796932893934</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02268415485873067</v>
+        <v>0.02361070465376848</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05848447847450446</v>
+        <v>0.06075042914752738</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -2067,19 +2067,19 @@
         <v>15530</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8758</v>
+        <v>9010</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24910</v>
+        <v>24801</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02879223717830627</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01623777504371098</v>
+        <v>0.01670385378342211</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04618385962505921</v>
+        <v>0.04598107857533659</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -2088,19 +2088,19 @@
         <v>32783</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>23274</v>
+        <v>22867</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>45714</v>
+        <v>46078</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03266236331210109</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02318845508858067</v>
+        <v>0.02278329932644499</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04554552024464305</v>
+        <v>0.04590812538243887</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>447072</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>437169</v>
+        <v>436117</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>453792</v>
+        <v>453362</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9628420306710607</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9415155215254956</v>
+        <v>0.9392495708524726</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9773158451412693</v>
+        <v>0.9763892953462315</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>509</v>
@@ -2138,19 +2138,19 @@
         <v>523838</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>514458</v>
+        <v>514567</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>530610</v>
+        <v>530358</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9712077628216937</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9538161403749409</v>
+        <v>0.9540189214246634</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9837622249562894</v>
+        <v>0.983296146216578</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>945</v>
@@ -2159,19 +2159,19 @@
         <v>970909</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>957978</v>
+        <v>957614</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>980418</v>
+        <v>980825</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.967337636687899</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9544544797553566</v>
+        <v>0.954091874617561</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9768115449114193</v>
+        <v>0.9772167006735548</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>28620</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19968</v>
+        <v>19660</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>40692</v>
+        <v>42097</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05445718201535767</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03799354784874447</v>
+        <v>0.03740852243455211</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07742771848331165</v>
+        <v>0.08009976895310247</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -2284,19 +2284,19 @@
         <v>22359</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14232</v>
+        <v>14820</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>33211</v>
+        <v>34425</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03774266224296515</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02402393858381802</v>
+        <v>0.02501702043987456</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05606073995460146</v>
+        <v>0.05811060439975587</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>50</v>
@@ -2305,19 +2305,19 @@
         <v>50979</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>38848</v>
+        <v>39358</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>66404</v>
+        <v>66631</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0456001127479783</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03474883464375982</v>
+        <v>0.03520487150276603</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05939726899174384</v>
+        <v>0.05960024741923758</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>496932</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>484860</v>
+        <v>483455</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>505584</v>
+        <v>505892</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9455428179846423</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9225722815166881</v>
+        <v>0.9199002310468978</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9620064521512556</v>
+        <v>0.9625914775654479</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>543</v>
@@ -2355,19 +2355,19 @@
         <v>570053</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>559201</v>
+        <v>557987</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>578180</v>
+        <v>577592</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9622573377570348</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9439392600453982</v>
+        <v>0.9418893956002454</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9759760614161819</v>
+        <v>0.9749829795601255</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1037</v>
@@ -2376,19 +2376,19 @@
         <v>1066984</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1051559</v>
+        <v>1051332</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1079115</v>
+        <v>1078605</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9543998872520217</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9406027310082564</v>
+        <v>0.9403997525807622</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9652511653562401</v>
+        <v>0.9647951284972339</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>84321</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>67332</v>
+        <v>68605</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>103906</v>
+        <v>106707</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03435026937143167</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02742923039110737</v>
+        <v>0.02794781488571579</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04232869421713061</v>
+        <v>0.04346974825348331</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>95</v>
@@ -2501,19 +2501,19 @@
         <v>95091</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>75554</v>
+        <v>77640</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>114079</v>
+        <v>116482</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03469299096635507</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02756520095078297</v>
+        <v>0.02832608797436155</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04162041053303379</v>
+        <v>0.04249731685918948</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>179</v>
@@ -2522,19 +2522,19 @@
         <v>179412</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>154485</v>
+        <v>154006</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>206114</v>
+        <v>204304</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03453106929566539</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02973329122487542</v>
+        <v>0.02964120030179159</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03967023052524257</v>
+        <v>0.03932184875387561</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>2370421</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2350836</v>
+        <v>2348035</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2387410</v>
+        <v>2386137</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9656497306285683</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9576713057828695</v>
+        <v>0.9565302517465167</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9725707696088927</v>
+        <v>0.9720521851142843</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2584</v>
@@ -2572,19 +2572,19 @@
         <v>2645846</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2626858</v>
+        <v>2624455</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2665383</v>
+        <v>2663297</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.965307009033645</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9583795894669664</v>
+        <v>0.9575026831408102</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.972434799049217</v>
+        <v>0.9716739120256385</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4907</v>
@@ -2593,19 +2593,19 @@
         <v>5016267</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4989565</v>
+        <v>4991375</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5041194</v>
+        <v>5041673</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9654689307043346</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9603297694747568</v>
+        <v>0.9606781512461239</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9702667087751243</v>
+        <v>0.9703587996982082</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>9398</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4272</v>
+        <v>4254</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17889</v>
+        <v>18054</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03750741269710944</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01704891027789076</v>
+        <v>0.01697854638893971</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07139739198109742</v>
+        <v>0.07205393955481161</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -2962,19 +2962,19 @@
         <v>11647</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5714</v>
+        <v>6025</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21228</v>
+        <v>21226</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0467318114912277</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02292573492647257</v>
+        <v>0.02417177567584428</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08517289619117865</v>
+        <v>0.08516452394378649</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -2983,19 +2983,19 @@
         <v>21045</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12572</v>
+        <v>13069</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32738</v>
+        <v>33071</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04210742000582523</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02515445789856449</v>
+        <v>0.02614752680664365</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06550267316910052</v>
+        <v>0.06616946039451659</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>241162</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>232671</v>
+        <v>232506</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>246288</v>
+        <v>246306</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9624925873028906</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9286026080189027</v>
+        <v>0.9279460604451887</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9829510897221093</v>
+        <v>0.9830214536110604</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>212</v>
@@ -3033,19 +3033,19 @@
         <v>237592</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>228011</v>
+        <v>228013</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>243525</v>
+        <v>243214</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9532681885087723</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9148271038088212</v>
+        <v>0.9148354760562133</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9770742650735275</v>
+        <v>0.9758282243241557</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>445</v>
@@ -3054,19 +3054,19 @@
         <v>478755</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>467062</v>
+        <v>466729</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>487228</v>
+        <v>486731</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9578925799941748</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9344973268308999</v>
+        <v>0.933830539605483</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9748455421014356</v>
+        <v>0.9738524731933561</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>18013</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11141</v>
+        <v>10863</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28110</v>
+        <v>27672</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04433216189440348</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02741826362180146</v>
+        <v>0.02673320427772024</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06918080454097621</v>
+        <v>0.06810346491865783</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -3179,19 +3179,19 @@
         <v>11241</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5983</v>
+        <v>5254</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20312</v>
+        <v>19628</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02567376659419352</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01366620126703314</v>
+        <v>0.01200027133497979</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04639328471531377</v>
+        <v>0.04482982496070679</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -3200,19 +3200,19 @@
         <v>29254</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19934</v>
+        <v>20055</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41872</v>
+        <v>41654</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03465491373791454</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02361393022516905</v>
+        <v>0.02375789692943038</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04960212167929481</v>
+        <v>0.04934429490997801</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>388317</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>378220</v>
+        <v>378658</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>395189</v>
+        <v>395467</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9556678381055965</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.930819195459024</v>
+        <v>0.9318965350813425</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9725817363781986</v>
+        <v>0.9732667957222798</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>392</v>
@@ -3250,19 +3250,19 @@
         <v>426582</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>417511</v>
+        <v>418195</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>431840</v>
+        <v>432569</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9743262334058065</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.953606715284687</v>
+        <v>0.9551701750392929</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9863337987329671</v>
+        <v>0.9879997286650202</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>756</v>
@@ -3271,19 +3271,19 @@
         <v>814899</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>802281</v>
+        <v>802499</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>824219</v>
+        <v>824098</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9653450862620855</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9503978783207052</v>
+        <v>0.950655705090022</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9763860697748309</v>
+        <v>0.9762421030705696</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>7555</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3755</v>
+        <v>3667</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15044</v>
+        <v>14340</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02572653730580458</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01278832802938572</v>
+        <v>0.01248546805208662</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05122809798418639</v>
+        <v>0.0488303398158473</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -3396,19 +3396,19 @@
         <v>12906</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6980</v>
+        <v>7082</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21203</v>
+        <v>21625</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03925871008756263</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0212304458816792</v>
+        <v>0.0215411622962526</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06449510254210784</v>
+        <v>0.06578008656290669</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -3417,19 +3417,19 @@
         <v>20461</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13548</v>
+        <v>13189</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30993</v>
+        <v>30465</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03287405436096166</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02176600516341079</v>
+        <v>0.02119078369076783</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04979431887348214</v>
+        <v>0.04894624426458261</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>286109</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>278620</v>
+        <v>279324</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>289909</v>
+        <v>289997</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9742734626941955</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9487719020158134</v>
+        <v>0.9511696601841529</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9872116719706142</v>
+        <v>0.9875145319479134</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>292</v>
@@ -3467,19 +3467,19 @@
         <v>315846</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>307549</v>
+        <v>307127</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>321772</v>
+        <v>321670</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9607412899124373</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9355048974578921</v>
+        <v>0.9342199134370933</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9787695541183209</v>
+        <v>0.9784588377037474</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>573</v>
@@ -3488,19 +3488,19 @@
         <v>601955</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>591423</v>
+        <v>591951</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>608868</v>
+        <v>609227</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9671259456390383</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9502056811265183</v>
+        <v>0.9510537557354191</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9782339948365892</v>
+        <v>0.9788092163092326</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>9410</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3953</v>
+        <v>4211</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17834</v>
+        <v>18703</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03005769783025406</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01262630978734814</v>
+        <v>0.01345136148133089</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05696209574165535</v>
+        <v>0.05973795439117071</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -3613,19 +3613,19 @@
         <v>14917</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8588</v>
+        <v>8804</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24671</v>
+        <v>24136</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04351318745544139</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02505066405997235</v>
+        <v>0.02568035142600896</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07196648788517042</v>
+        <v>0.07040431641567677</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -3634,19 +3634,19 @@
         <v>24327</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15251</v>
+        <v>15430</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>38197</v>
+        <v>36573</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03709047394876481</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02325195759998831</v>
+        <v>0.02352482809726985</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05823609707507886</v>
+        <v>0.05576112173571857</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>303667</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>295243</v>
+        <v>294374</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>309124</v>
+        <v>308866</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.969942302169746</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9430379042583447</v>
+        <v>0.9402620456088293</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9873736902126519</v>
+        <v>0.9865486385186694</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>312</v>
@@ -3684,19 +3684,19 @@
         <v>327898</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>318144</v>
+        <v>318679</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>334227</v>
+        <v>334011</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9564868125445586</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9280335121148302</v>
+        <v>0.929595683584323</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9749493359400292</v>
+        <v>0.9743196485739909</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>593</v>
@@ -3705,19 +3705,19 @@
         <v>631564</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>617694</v>
+        <v>619318</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>640640</v>
+        <v>640461</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9629095260512351</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9417639029249213</v>
+        <v>0.9442388782642818</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9767480424000119</v>
+        <v>0.9764751719027303</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>5060</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1967</v>
+        <v>1972</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11095</v>
+        <v>10634</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02634523142909341</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01024326925822873</v>
+        <v>0.0102683425719025</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05777009457130568</v>
+        <v>0.0553683271062268</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -3830,19 +3830,19 @@
         <v>5843</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2077</v>
+        <v>1983</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12454</v>
+        <v>11828</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03002628632771263</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01067553266671275</v>
+        <v>0.01018916016866254</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06400608706646209</v>
+        <v>0.06078742136065425</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -3851,19 +3851,19 @@
         <v>10902</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5775</v>
+        <v>5076</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18568</v>
+        <v>18177</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02819776998554513</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01493647050182422</v>
+        <v>0.01312890837913919</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0480235847071003</v>
+        <v>0.04701380499706964</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>186998</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>180963</v>
+        <v>181424</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>190091</v>
+        <v>190086</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9736547685709066</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9422299054286946</v>
+        <v>0.9446316728937741</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9897567307417713</v>
+        <v>0.9897316574280975</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>182</v>
@@ -3901,19 +3901,19 @@
         <v>188739</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>182128</v>
+        <v>182754</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>192505</v>
+        <v>192599</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9699737136722874</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9359939129335378</v>
+        <v>0.9392125786393457</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9893244673332873</v>
+        <v>0.9898108398313374</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>353</v>
@@ -3922,19 +3922,19 @@
         <v>375738</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>368072</v>
+        <v>368463</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>380865</v>
+        <v>381564</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9718022300144549</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9519764152928997</v>
+        <v>0.9529861950029307</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9850635294981758</v>
+        <v>0.986871091620861</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>6996</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2876</v>
+        <v>3153</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13695</v>
+        <v>14243</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02798826004982063</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01150488111407951</v>
+        <v>0.01261425089707842</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05478620613378089</v>
+        <v>0.05697776743310123</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -4047,19 +4047,19 @@
         <v>12361</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6465</v>
+        <v>5888</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21993</v>
+        <v>21469</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0466761736464128</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02441336849833053</v>
+        <v>0.02223149930181581</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08304473468939999</v>
+        <v>0.08106711723199402</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -4068,19 +4068,19 @@
         <v>19358</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11606</v>
+        <v>11866</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>29618</v>
+        <v>31107</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03760187342841502</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02254489689972415</v>
+        <v>0.02305040843693556</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05753278256849811</v>
+        <v>0.06042515230648739</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>242977</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>236278</v>
+        <v>235730</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>247097</v>
+        <v>246820</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9720117399501794</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9452137938662192</v>
+        <v>0.9430222325668988</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9884951188859205</v>
+        <v>0.9873857491029215</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>243</v>
@@ -4118,19 +4118,19 @@
         <v>252469</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>242837</v>
+        <v>243361</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>258365</v>
+        <v>258942</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9533238263535873</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9169552653106001</v>
+        <v>0.918932882768006</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9755866315016695</v>
+        <v>0.9777685006981842</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>474</v>
@@ -4139,19 +4139,19 @@
         <v>495445</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>485185</v>
+        <v>483696</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>503197</v>
+        <v>502937</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.962398126571585</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9424672174315017</v>
+        <v>0.9395748476935125</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9774551031002758</v>
+        <v>0.9769495915630644</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>21798</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13812</v>
+        <v>13468</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>35995</v>
+        <v>35930</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03790296156313133</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02401688564203969</v>
+        <v>0.02341920980294221</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06259049486039321</v>
+        <v>0.06247788467443392</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -4264,19 +4264,19 @@
         <v>16888</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10654</v>
+        <v>10096</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>27351</v>
+        <v>26354</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02697871816704595</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01701989233751987</v>
+        <v>0.01612829222998301</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04369299278057718</v>
+        <v>0.04209996662153832</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -4285,19 +4285,19 @@
         <v>38686</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>27134</v>
+        <v>27657</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>55363</v>
+        <v>53094</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03220938162862008</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02259166577289165</v>
+        <v>0.02302722467905913</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0460942088224868</v>
+        <v>0.04420534161251891</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>553293</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>539096</v>
+        <v>539161</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>561279</v>
+        <v>561623</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9620970384368687</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.937409505139607</v>
+        <v>0.9375221153255666</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9759831143579604</v>
+        <v>0.9765807901970582</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>555</v>
@@ -4335,19 +4335,19 @@
         <v>609099</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>598636</v>
+        <v>599633</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>615333</v>
+        <v>615891</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9730212818329541</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9563070072194225</v>
+        <v>0.9579000333784616</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9829801076624801</v>
+        <v>0.9838717077700169</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1074</v>
@@ -4356,19 +4356,19 @@
         <v>1162392</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1145715</v>
+        <v>1147984</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1173944</v>
+        <v>1173421</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9677906183713799</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9539057911775134</v>
+        <v>0.9557946583874811</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9774083342271084</v>
+        <v>0.9769727753209408</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>19164</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12246</v>
+        <v>11814</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>29984</v>
+        <v>29390</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03023095580619413</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01931885019259908</v>
+        <v>0.01863694121685324</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04730125110451558</v>
+        <v>0.04636336668002459</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>24</v>
@@ -4481,19 +4481,19 @@
         <v>27136</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17890</v>
+        <v>18366</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39666</v>
+        <v>39289</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03863963903752596</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0254741737107179</v>
+        <v>0.02615151184532262</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05648069300135298</v>
+        <v>0.0559431672624049</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>43</v>
@@ -4502,19 +4502,19 @@
         <v>46300</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>34087</v>
+        <v>34164</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>60588</v>
+        <v>61553</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03465048381443529</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02551063871458253</v>
+        <v>0.02556830005363711</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04534336614477341</v>
+        <v>0.04606611547156685</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>614741</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>603921</v>
+        <v>604515</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>621659</v>
+        <v>622091</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9697690441938058</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9526987488954846</v>
+        <v>0.9536366333199754</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.980681149807401</v>
+        <v>0.9813630587831468</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>622</v>
@@ -4552,19 +4552,19 @@
         <v>675158</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>662628</v>
+        <v>663005</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>684404</v>
+        <v>683928</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.961360360962474</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9435193069986468</v>
+        <v>0.9440568327375947</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9745258262892821</v>
+        <v>0.9738484881546773</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1187</v>
@@ -4573,19 +4573,19 @@
         <v>1289899</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1275611</v>
+        <v>1274646</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1302112</v>
+        <v>1302035</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9653495161855647</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9546566338552268</v>
+        <v>0.9539338845284324</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9744893612854175</v>
+        <v>0.9744316999463628</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>97394</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>79892</v>
+        <v>79274</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>122339</v>
+        <v>119055</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03341524084440683</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02741024511457341</v>
+        <v>0.0271982512939499</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0419736786117124</v>
+        <v>0.04084683314317323</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>105</v>
@@ -4698,19 +4698,19 @@
         <v>112940</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>93423</v>
+        <v>93554</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>136581</v>
+        <v>134534</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03589583331884923</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02969286582727178</v>
+        <v>0.02973447382600873</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04340977623234475</v>
+        <v>0.04275910362342579</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>196</v>
@@ -4719,19 +4719,19 @@
         <v>210334</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>181378</v>
+        <v>183624</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>240952</v>
+        <v>240874</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0347029436919742</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02992560407206877</v>
+        <v>0.03029611492634642</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03975455504274893</v>
+        <v>0.0397417678708707</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>2817265</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2792320</v>
+        <v>2795604</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2834767</v>
+        <v>2835385</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9665847591555932</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9580263213882877</v>
+        <v>0.9591531668568267</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9725897548854265</v>
+        <v>0.97280174870605</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2810</v>
@@ -4769,19 +4769,19 @@
         <v>3033381</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3009740</v>
+        <v>3011787</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3052898</v>
+        <v>3052767</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9641041666811507</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9565902237676549</v>
+        <v>0.9572408963765742</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9703071341727282</v>
+        <v>0.9702655261739912</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5455</v>
@@ -4790,19 +4790,19 @@
         <v>5850646</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5820028</v>
+        <v>5820106</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5879602</v>
+        <v>5877356</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9652970563080258</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9602454449572508</v>
+        <v>0.9602582321291293</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9700743959279311</v>
+        <v>0.9697038850736536</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>12627</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6916</v>
+        <v>6749</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21676</v>
+        <v>21331</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05149381886390521</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02820520436722889</v>
+        <v>0.02752296291935433</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08839649293096949</v>
+        <v>0.0869879495517408</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -5159,19 +5159,19 @@
         <v>19270</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11928</v>
+        <v>11976</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29530</v>
+        <v>28702</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07822524299710838</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04842156240807922</v>
+        <v>0.04861560987394439</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1198786158500117</v>
+        <v>0.1165164764446386</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -5180,19 +5180,19 @@
         <v>31897</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21988</v>
+        <v>22292</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>43718</v>
+        <v>44387</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06488988028101088</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04473102540850919</v>
+        <v>0.04534968090743105</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08893915950685663</v>
+        <v>0.09030084055189375</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>232591</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>223542</v>
+        <v>223887</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>238302</v>
+        <v>238469</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9485061811360948</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9116035070690304</v>
+        <v>0.9130120504482592</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9717947956327712</v>
+        <v>0.9724770370806456</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>220</v>
@@ -5230,19 +5230,19 @@
         <v>227064</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>216804</v>
+        <v>217632</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>234406</v>
+        <v>234358</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9217747570028916</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8801213841499882</v>
+        <v>0.8834835235553611</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9515784375919206</v>
+        <v>0.9513843901260556</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>429</v>
@@ -5251,19 +5251,19 @@
         <v>459654</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>447833</v>
+        <v>447164</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>469563</v>
+        <v>469259</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9351101197189892</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9110608404931433</v>
+        <v>0.9096991594481062</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9552689745914908</v>
+        <v>0.9546503190925689</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>7977</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3866</v>
+        <v>3029</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14867</v>
+        <v>14992</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02196634414302514</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01064546327061688</v>
+        <v>0.008341321317904087</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04093612930777733</v>
+        <v>0.04128285341164172</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -5376,19 +5376,19 @@
         <v>10274</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5744</v>
+        <v>4907</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18639</v>
+        <v>18405</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02612063576239634</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01460467346946254</v>
+        <v>0.01247446574503964</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04738728762379386</v>
+        <v>0.04679294027255868</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -5397,19 +5397,19 @@
         <v>18251</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11805</v>
+        <v>11485</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29988</v>
+        <v>29662</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02412630615188768</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01560494689662709</v>
+        <v>0.01518171177460429</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0396405048225946</v>
+        <v>0.0392105169674877</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>355188</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>348298</v>
+        <v>348173</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>359299</v>
+        <v>360136</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9780336558569749</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9590638706922227</v>
+        <v>0.9587171465883583</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9893545367293831</v>
+        <v>0.9916586786820959</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>362</v>
@@ -5447,19 +5447,19 @@
         <v>383053</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>374688</v>
+        <v>374922</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>387583</v>
+        <v>388420</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9738793642376037</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9526127123762061</v>
+        <v>0.9532070597274412</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9853953265305375</v>
+        <v>0.9875255342549604</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>696</v>
@@ -5468,19 +5468,19 @@
         <v>738241</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>726504</v>
+        <v>726830</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>744687</v>
+        <v>745007</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9758736938481123</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9603594951774054</v>
+        <v>0.9607894830325123</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9843950531033728</v>
+        <v>0.9848182882253956</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>9079</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4157</v>
+        <v>4499</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16370</v>
+        <v>17579</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03125168311686369</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01431111381304153</v>
+        <v>0.01548618026732896</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05634828277889344</v>
+        <v>0.06051209892223952</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -5593,19 +5593,19 @@
         <v>9979</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4742</v>
+        <v>4770</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18613</v>
+        <v>17877</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03242532691268504</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01540819514183684</v>
+        <v>0.01549906833256928</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06047780297729604</v>
+        <v>0.05808773202464652</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -5614,19 +5614,19 @@
         <v>19058</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11717</v>
+        <v>11976</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29703</v>
+        <v>29907</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03185543216743193</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01958540211167559</v>
+        <v>0.02001724904825522</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04964789530665823</v>
+        <v>0.04998875437627991</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>281428</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>274137</v>
+        <v>272928</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>286350</v>
+        <v>286008</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9687483168831363</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.943651717221107</v>
+        <v>0.9394879010777603</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9856888861869624</v>
+        <v>0.984513819732671</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>296</v>
@@ -5664,19 +5664,19 @@
         <v>297785</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>289151</v>
+        <v>289887</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>303022</v>
+        <v>302994</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9675746730873149</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.939522197022704</v>
+        <v>0.9419122679753535</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9845918048581631</v>
+        <v>0.9845009316674308</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>590</v>
@@ -5685,19 +5685,19 @@
         <v>579212</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>568567</v>
+        <v>568363</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>586553</v>
+        <v>586294</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9681445678325681</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9503521046933417</v>
+        <v>0.9500112456237202</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9804145978883243</v>
+        <v>0.979982750951745</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>8231</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3610</v>
+        <v>3754</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16189</v>
+        <v>16852</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02493738822181147</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0109369834639463</v>
+        <v>0.01137318309085973</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04904927422379912</v>
+        <v>0.05106056305956719</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -5810,19 +5810,19 @@
         <v>9575</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4801</v>
+        <v>4685</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17378</v>
+        <v>16575</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02744609342836206</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01376179448526492</v>
+        <v>0.01343022976655347</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0498128913139876</v>
+        <v>0.04751310975205422</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -5831,19 +5831,19 @@
         <v>17805</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10422</v>
+        <v>10621</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28529</v>
+        <v>28318</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02622650092670776</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01535125011712491</v>
+        <v>0.01564469593090482</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04202134963931094</v>
+        <v>0.04171079025311954</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>321816</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>313858</v>
+        <v>313195</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>326437</v>
+        <v>326293</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9750626117781885</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9509507257762008</v>
+        <v>0.9489394369404327</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9890630165360537</v>
+        <v>0.9886268169091402</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>313</v>
@@ -5881,19 +5881,19 @@
         <v>339286</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>331483</v>
+        <v>332286</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>344060</v>
+        <v>344176</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.972553906571638</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9501871086860124</v>
+        <v>0.9524868902479457</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9862382055147351</v>
+        <v>0.9865697702334466</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>620</v>
@@ -5902,19 +5902,19 @@
         <v>661103</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>650379</v>
+        <v>650590</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>668486</v>
+        <v>668287</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9737734990732922</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9579786503606891</v>
+        <v>0.9582892097468805</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9846487498828751</v>
+        <v>0.9843553040690951</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>6016</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1954</v>
+        <v>2261</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11622</v>
+        <v>12730</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05046193255275141</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0163904143711516</v>
+        <v>0.01896478788372713</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09748425088014318</v>
+        <v>0.1067739992088419</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -6027,19 +6027,19 @@
         <v>5337</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1788</v>
+        <v>1805</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10832</v>
+        <v>10778</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03668051393774371</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01228967311303383</v>
+        <v>0.01240502046034021</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07444642669884233</v>
+        <v>0.07407610320824438</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -6048,19 +6048,19 @@
         <v>11353</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6349</v>
+        <v>5776</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19196</v>
+        <v>19158</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04288721530175522</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02398349028594643</v>
+        <v>0.02182078754105104</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07251238234215071</v>
+        <v>0.0723717657925798</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>113206</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>107600</v>
+        <v>106492</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>117268</v>
+        <v>116961</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9495380674472486</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9025157491198572</v>
+        <v>0.8932260007911582</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9836095856288485</v>
+        <v>0.9810352121162731</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>146</v>
@@ -6098,19 +6098,19 @@
         <v>140163</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>134668</v>
+        <v>134722</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>143712</v>
+        <v>143695</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9633194860622563</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9255535733011577</v>
+        <v>0.9259238967917554</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9877103268869661</v>
+        <v>0.9875949795396597</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>258</v>
@@ -6119,19 +6119,19 @@
         <v>253369</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>245526</v>
+        <v>245564</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>258373</v>
+        <v>258946</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9571127846982448</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9274876176578494</v>
+        <v>0.9276282342074204</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9760165097140536</v>
+        <v>0.978179212458949</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>3774</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>970</v>
+        <v>957</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9525</v>
+        <v>9434</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01615503410502213</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004152403321341383</v>
+        <v>0.004097571528398551</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0407732318257194</v>
+        <v>0.04038183403248351</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -6244,19 +6244,19 @@
         <v>14450</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8552</v>
+        <v>8627</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22391</v>
+        <v>23127</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0584691530129914</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03460350006361997</v>
+        <v>0.0349075530643229</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09060101200998445</v>
+        <v>0.0935791174547914</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -6265,19 +6265,19 @@
         <v>18224</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11421</v>
+        <v>11395</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>27189</v>
+        <v>27029</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03790716967817353</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02375747267105623</v>
+        <v>0.0237027278871581</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05655589587288065</v>
+        <v>0.05622284022456839</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>229841</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>224090</v>
+        <v>224181</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>232645</v>
+        <v>232658</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9838449658949778</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.95922676817428</v>
+        <v>0.9596181659675165</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9958475966786586</v>
+        <v>0.9959024284716015</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>225</v>
@@ -6315,19 +6315,19 @@
         <v>232687</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>224746</v>
+        <v>224010</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>238585</v>
+        <v>238510</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9415308469870086</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9093989879900156</v>
+        <v>0.9064208825452087</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.96539649993638</v>
+        <v>0.9650924469356772</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>451</v>
@@ -6336,19 +6336,19 @@
         <v>462529</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>453564</v>
+        <v>453724</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>469332</v>
+        <v>469358</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9620928303218265</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9434441041271193</v>
+        <v>0.9437771597754316</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9762425273289438</v>
+        <v>0.9762972721128419</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>6479</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2205</v>
+        <v>2145</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14181</v>
+        <v>12985</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01464797629669378</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004985421299881748</v>
+        <v>0.00485002032640573</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03206234242362493</v>
+        <v>0.02935639341147123</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -6461,19 +6461,19 @@
         <v>11247</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5554</v>
+        <v>5731</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20076</v>
+        <v>20170</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02309258925993031</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01140387094409991</v>
+        <v>0.01176687033045941</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04121908638211844</v>
+        <v>0.04141338338686335</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -6482,19 +6482,19 @@
         <v>17726</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10102</v>
+        <v>11077</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>28183</v>
+        <v>29363</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01907356510965191</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01087033580688314</v>
+        <v>0.01191855452324502</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03032490644376581</v>
+        <v>0.03159458326088427</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>435828</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>428126</v>
+        <v>429322</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>440102</v>
+        <v>440162</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9853520237033062</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9679376575763747</v>
+        <v>0.9706436065885287</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9950145787001183</v>
+        <v>0.9951499796735943</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>451</v>
@@ -6532,19 +6532,19 @@
         <v>475804</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>466975</v>
+        <v>466881</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>481497</v>
+        <v>481320</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9769074107400697</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9587809136178819</v>
+        <v>0.9585866166131366</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9885961290559002</v>
+        <v>0.9882331296695406</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>831</v>
@@ -6553,19 +6553,19 @@
         <v>911632</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>901175</v>
+        <v>899995</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>919256</v>
+        <v>918281</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9809264348903481</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9696750935562343</v>
+        <v>0.9684054167391151</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9891296641931169</v>
+        <v>0.9880814454767548</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>21582</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13903</v>
+        <v>13240</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33220</v>
+        <v>32341</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03370787313769295</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02171488654537547</v>
+        <v>0.02067974516696148</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0518857385986876</v>
+        <v>0.0505128874558635</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -6678,19 +6678,19 @@
         <v>22944</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15086</v>
+        <v>14984</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>35196</v>
+        <v>34419</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03318787225653571</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02182126453048458</v>
+        <v>0.02167354382046697</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05091018717188089</v>
+        <v>0.04978572399603615</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>43</v>
@@ -6699,19 +6699,19 @@
         <v>44526</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>31642</v>
+        <v>32522</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>58007</v>
+        <v>59965</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03343789717277924</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02376263221049522</v>
+        <v>0.0244236518985651</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04356179517755435</v>
+        <v>0.04503289174203216</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>618670</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>607032</v>
+        <v>607911</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>626349</v>
+        <v>627012</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.966292126862307</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9481142614013129</v>
+        <v>0.9494871125441372</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9782851134546247</v>
+        <v>0.9793202548330385</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>613</v>
@@ -6749,19 +6749,19 @@
         <v>668397</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>656145</v>
+        <v>656922</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>676255</v>
+        <v>676357</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9668121277434643</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9490898128281193</v>
+        <v>0.9502142760039639</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9781787354695155</v>
+        <v>0.9783264561795331</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1208</v>
@@ -6770,19 +6770,19 @@
         <v>1287067</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1273586</v>
+        <v>1271628</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1299951</v>
+        <v>1299071</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9665621028272208</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9564382048224456</v>
+        <v>0.9549671082579678</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9762373677895048</v>
+        <v>0.9755763481014349</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>75765</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>59179</v>
+        <v>59490</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>94027</v>
+        <v>95519</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02843661698382717</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0222116278253261</v>
+        <v>0.0223282750856003</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03529083119505452</v>
+        <v>0.03585111023644691</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>101</v>
@@ -6895,19 +6895,19 @@
         <v>103076</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>84783</v>
+        <v>82714</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>123719</v>
+        <v>123434</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03594862253117746</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02956883261323375</v>
+        <v>0.02884728732455767</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04314815243822613</v>
+        <v>0.04304862537628566</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>174</v>
@@ -6916,19 +6916,19 @@
         <v>178841</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>154653</v>
+        <v>154012</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>208093</v>
+        <v>209462</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03233044490673399</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02795793355720924</v>
+        <v>0.02784195026769296</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03761863892157622</v>
+        <v>0.03786602687634472</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>2588568</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2570306</v>
+        <v>2568814</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2605154</v>
+        <v>2604843</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9715633830161728</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9647091688049451</v>
+        <v>0.9641488897635533</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9777883721746734</v>
+        <v>0.9776717249144007</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2626</v>
@@ -6966,19 +6966,19 @@
         <v>2764239</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2743596</v>
+        <v>2743881</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2782532</v>
+        <v>2784601</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9640513774688225</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9568518475617741</v>
+        <v>0.9569513746237144</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9704311673867663</v>
+        <v>0.9711527126754426</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5083</v>
@@ -6987,19 +6987,19 @@
         <v>5352807</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5323555</v>
+        <v>5322186</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5376995</v>
+        <v>5377636</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.967669555093266</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9623813610784238</v>
+        <v>0.9621339731236553</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9720420664427908</v>
+        <v>0.972158049732307</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>15845</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8099</v>
+        <v>7765</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30258</v>
+        <v>30245</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.052655104927165</v>
+        <v>0.05265510492716501</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02691473942360439</v>
+        <v>0.02580606772700914</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1005523609637986</v>
+        <v>0.1005108322382528</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -7356,19 +7356,19 @@
         <v>18812</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11861</v>
+        <v>11935</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28386</v>
+        <v>28783</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.06078753712892849</v>
+        <v>0.06078753712892847</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03832600550232036</v>
+        <v>0.03856738317016273</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09172478718509121</v>
+        <v>0.09300922078987486</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -7377,19 +7377,19 @@
         <v>34656</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23143</v>
+        <v>23638</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49994</v>
+        <v>50562</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05677825786290575</v>
+        <v>0.05677825786290574</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03791558092236123</v>
+        <v>0.03872700213020461</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08190690278195496</v>
+        <v>0.08283609958019918</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>285072</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>270659</v>
+        <v>270672</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>292818</v>
+        <v>293152</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9473448950728351</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8994476390362015</v>
+        <v>0.8994891677617474</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9730852605763957</v>
+        <v>0.9741939322729908</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>509</v>
@@ -7427,19 +7427,19 @@
         <v>290652</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>281078</v>
+        <v>280681</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>297603</v>
+        <v>297529</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9392124628710715</v>
+        <v>0.9392124628710713</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9082752128149088</v>
+        <v>0.9069907792101248</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9616739944976798</v>
+        <v>0.9614326168298372</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>815</v>
@@ -7448,19 +7448,19 @@
         <v>575725</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>560387</v>
+        <v>559819</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>587238</v>
+        <v>586743</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9432217421370941</v>
+        <v>0.9432217421370943</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9180930972180456</v>
+        <v>0.9171639004198011</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9620844190776389</v>
+        <v>0.9612729978697955</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>18202</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10283</v>
+        <v>10345</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31238</v>
+        <v>30181</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.0351369078807057</v>
+        <v>0.03513690788070571</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01984992208798291</v>
+        <v>0.01996987431080133</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06030195598446475</v>
+        <v>0.05826115247807197</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -7573,19 +7573,19 @@
         <v>29151</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20303</v>
+        <v>20909</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41017</v>
+        <v>41320</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05483576886814857</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03819102917777251</v>
+        <v>0.03933112449086178</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07715677619038119</v>
+        <v>0.07772666347150539</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -7594,19 +7594,19 @@
         <v>47353</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35440</v>
+        <v>35522</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>64329</v>
+        <v>63987</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.0451138002293087</v>
+        <v>0.04511380022930871</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0337643250489939</v>
+        <v>0.03384202320214406</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0612867351340135</v>
+        <v>0.06096100687100984</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>499826</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>486790</v>
+        <v>487847</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>507745</v>
+        <v>507683</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9648630921192942</v>
+        <v>0.9648630921192943</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9396980440155354</v>
+        <v>0.9417388475219283</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.980150077912017</v>
+        <v>0.9800301256891987</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>659</v>
@@ -7644,19 +7644,19 @@
         <v>502461</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>490595</v>
+        <v>490292</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>511309</v>
+        <v>510703</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9451642311318516</v>
+        <v>0.9451642311318513</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9228432238096195</v>
+        <v>0.9222733365284949</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9618089708222276</v>
+        <v>0.9606688755091384</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1015</v>
@@ -7665,19 +7665,19 @@
         <v>1002287</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>985311</v>
+        <v>985653</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1014200</v>
+        <v>1014118</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9548861997706912</v>
+        <v>0.9548861997706914</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9387132648659865</v>
+        <v>0.9390389931289903</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9662356749510062</v>
+        <v>0.9661579767978561</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>6132</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2382</v>
+        <v>2457</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13376</v>
+        <v>13196</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02042470033254668</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00793469088335497</v>
+        <v>0.008183366328826949</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04455324347823927</v>
+        <v>0.04395311645634661</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -7790,19 +7790,19 @@
         <v>5843</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2860</v>
+        <v>2863</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11187</v>
+        <v>10783</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01709936686613298</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008369038105592504</v>
+        <v>0.008377304161283683</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03273835369207592</v>
+        <v>0.03155641643917567</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -7811,19 +7811,19 @@
         <v>11975</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6534</v>
+        <v>6888</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19429</v>
+        <v>19831</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01865461226242787</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01017930807394859</v>
+        <v>0.01072986637396589</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03026594645829818</v>
+        <v>0.03089293171005404</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>294099</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>286855</v>
+        <v>287035</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>297849</v>
+        <v>297774</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9795752996674533</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9554467565217605</v>
+        <v>0.9560468835436534</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.992065309116645</v>
+        <v>0.991816633671173</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>508</v>
@@ -7861,19 +7861,19 @@
         <v>335862</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>330518</v>
+        <v>330922</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>338845</v>
+        <v>338842</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9829006331338672</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.967261646307924</v>
+        <v>0.9684435835608246</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9916309618944075</v>
+        <v>0.9916226958387163</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>847</v>
@@ -7882,19 +7882,19 @@
         <v>629960</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>622506</v>
+        <v>622104</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>635401</v>
+        <v>635047</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9813453877375721</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9697340535417017</v>
+        <v>0.969107068289946</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9898206919260514</v>
+        <v>0.9892701336260342</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>5972</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1119</v>
+        <v>1150</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22032</v>
+        <v>22006</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01610876444733179</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003017690865623101</v>
+        <v>0.003102652048129978</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05942769346308717</v>
+        <v>0.05935711635109925</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -8007,19 +8007,19 @@
         <v>8499</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3874</v>
+        <v>4028</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17284</v>
+        <v>17512</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02025355832098936</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009232629267005289</v>
+        <v>0.00959968641472074</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04119134065957548</v>
+        <v>0.0417332836550542</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -8028,19 +8028,19 @@
         <v>14471</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7022</v>
+        <v>7316</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29459</v>
+        <v>30167</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01830931757330488</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008884948605756301</v>
+        <v>0.009256233870405141</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03727392503427583</v>
+        <v>0.03816883517077562</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>364766</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>348706</v>
+        <v>348732</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>369619</v>
+        <v>369588</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9838912355526682</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9405723065369127</v>
+        <v>0.9406428836489007</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9969823091343769</v>
+        <v>0.9968973479518701</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>584</v>
@@ -8078,19 +8078,19 @@
         <v>411114</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>402329</v>
+        <v>402101</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>415739</v>
+        <v>415585</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9797464416790108</v>
+        <v>0.9797464416790106</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.958808659340424</v>
+        <v>0.9582667163449461</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9907673707329946</v>
+        <v>0.9904003135852791</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>869</v>
@@ -8099,19 +8099,19 @@
         <v>775880</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>760892</v>
+        <v>760184</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>783329</v>
+        <v>783035</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9816906824266952</v>
+        <v>0.9816906824266951</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.962726074965724</v>
+        <v>0.9618311648292248</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9911150513942437</v>
+        <v>0.9907437661295948</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>5157</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2186</v>
+        <v>1910</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10722</v>
+        <v>10640</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02724373350278282</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01154906344688142</v>
+        <v>0.01008907751863649</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05664066095517829</v>
+        <v>0.05620486051671936</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -8224,19 +8224,19 @@
         <v>6494</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2963</v>
+        <v>2682</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13494</v>
+        <v>13653</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.02954681034688351</v>
+        <v>0.0295468103468835</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01348036024682621</v>
+        <v>0.01219978916210946</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06139260961930425</v>
+        <v>0.06211335844767719</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -8245,19 +8245,19 @@
         <v>11652</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6816</v>
+        <v>6408</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18926</v>
+        <v>19605</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.02848112992614951</v>
+        <v>0.02848112992614949</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01666140355162658</v>
+        <v>0.01566475263825847</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04626322707690603</v>
+        <v>0.04792158152169423</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>184142</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>178577</v>
+        <v>178659</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>187113</v>
+        <v>187389</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9727562664972171</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9433593390448216</v>
+        <v>0.9437951394832805</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9884509365531184</v>
+        <v>0.9899109224813636</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>466</v>
@@ -8295,19 +8295,19 @@
         <v>213308</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>206308</v>
+        <v>206149</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>216839</v>
+        <v>217120</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9704531896531166</v>
+        <v>0.9704531896531164</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9386073903806956</v>
+        <v>0.9378866415523213</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9865196397531739</v>
+        <v>0.9878002108378905</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>723</v>
@@ -8316,19 +8316,19 @@
         <v>397449</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>390175</v>
+        <v>389496</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>402285</v>
+        <v>402693</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9715188700738506</v>
+        <v>0.9715188700738504</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9537367729230941</v>
+        <v>0.9520784184783059</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9833385964483734</v>
+        <v>0.9843352473617416</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>4522</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1494</v>
+        <v>1464</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11051</v>
+        <v>12002</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01810827024742334</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005982877814293883</v>
+        <v>0.005860764738382446</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04424959836403013</v>
+        <v>0.04806093721607076</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -8441,19 +8441,19 @@
         <v>3273</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1317</v>
+        <v>1274</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7158</v>
+        <v>6886</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0130103285182026</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005236616348623373</v>
+        <v>0.005064034825485178</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02845393426696332</v>
+        <v>0.02737386393157248</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -8462,19 +8462,19 @@
         <v>7795</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4144</v>
+        <v>3935</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15150</v>
+        <v>14943</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01555002077703496</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008267459111387937</v>
+        <v>0.007849823652788039</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03022244429524322</v>
+        <v>0.02980967640019722</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>245213</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>238684</v>
+        <v>237733</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>248241</v>
+        <v>248271</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9818917297525765</v>
+        <v>0.9818917297525767</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.955750401635971</v>
+        <v>0.951939062783929</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9940171221857061</v>
+        <v>0.9941392352616176</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>434</v>
@@ -8512,19 +8512,19 @@
         <v>248287</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>244402</v>
+        <v>244674</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>250243</v>
+        <v>250286</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9869896714817973</v>
+        <v>0.9869896714817974</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9715460657330367</v>
+        <v>0.9726261360684278</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9947633836513766</v>
+        <v>0.994935965174515</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>773</v>
@@ -8533,19 +8533,19 @@
         <v>493499</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>486144</v>
+        <v>486351</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>497150</v>
+        <v>497359</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9844499792229651</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9697775557047567</v>
+        <v>0.9701903235998027</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.991732540888612</v>
+        <v>0.992150176347212</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>30552</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19257</v>
+        <v>18800</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48041</v>
+        <v>46401</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04379074000538322</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02760216917986466</v>
+        <v>0.02694715782352071</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06885765308869295</v>
+        <v>0.06650690070110056</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>46</v>
@@ -8658,19 +8658,19 @@
         <v>42376</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>30416</v>
+        <v>30717</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>56389</v>
+        <v>58802</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05715844897477002</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04102523540598849</v>
+        <v>0.04143210934419284</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07605828836732857</v>
+        <v>0.07931360100438374</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>68</v>
@@ -8679,19 +8679,19 @@
         <v>72928</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>54920</v>
+        <v>55823</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>92823</v>
+        <v>93112</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0506775929464058</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03816367829818901</v>
+        <v>0.03879129127419352</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06450205469850522</v>
+        <v>0.06470293853552095</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>667128</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>649639</v>
+        <v>651279</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>678423</v>
+        <v>678880</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9562092599946169</v>
+        <v>0.956209259994617</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.931142346911307</v>
+        <v>0.9334930992988995</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9723978308201353</v>
+        <v>0.9730528421764791</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>877</v>
@@ -8729,19 +8729,19 @@
         <v>699010</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>684997</v>
+        <v>682584</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>710970</v>
+        <v>710669</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9428415510252299</v>
+        <v>0.94284155102523</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9239417116326714</v>
+        <v>0.9206863989956163</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9589747645940114</v>
+        <v>0.9585678906558072</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1436</v>
@@ -8750,19 +8750,19 @@
         <v>1366138</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1346243</v>
+        <v>1345954</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1384146</v>
+        <v>1383243</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9493224070535943</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9354979453014952</v>
+        <v>0.935297061464479</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9618363217018111</v>
+        <v>0.9612087087258065</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>31432</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19588</v>
+        <v>22029</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44298</v>
+        <v>46308</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0407656862876545</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02540417949140994</v>
+        <v>0.02857069425633702</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05745142475516444</v>
+        <v>0.06005867721977839</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>40</v>
@@ -8875,19 +8875,19 @@
         <v>37663</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>26894</v>
+        <v>26410</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>51808</v>
+        <v>50824</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.04647972325919168</v>
+        <v>0.04647972325919167</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03318952146131506</v>
+        <v>0.03259290124867149</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06393621630783439</v>
+        <v>0.06272134057368334</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>66</v>
@@ -8896,19 +8896,19 @@
         <v>69095</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>53107</v>
+        <v>53373</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>86914</v>
+        <v>88233</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04369363028075633</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03358314616712261</v>
+        <v>0.03375133448176718</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05496142959815875</v>
+        <v>0.05579584233082754</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>739618</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>726752</v>
+        <v>724742</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>751462</v>
+        <v>749021</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9592343137123456</v>
+        <v>0.9592343137123454</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.942548575244836</v>
+        <v>0.9399413227802216</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9745958205085902</v>
+        <v>0.9714293057436633</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>999</v>
@@ -8946,19 +8946,19 @@
         <v>772644</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>758499</v>
+        <v>759483</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>783413</v>
+        <v>783897</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9535202767408084</v>
+        <v>0.9535202767408081</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9360637836921653</v>
+        <v>0.9372786594263163</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9668104785386847</v>
+        <v>0.9674070987513284</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1717</v>
@@ -8967,19 +8967,19 @@
         <v>1512262</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1494443</v>
+        <v>1493124</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1528250</v>
+        <v>1527984</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9563063697192438</v>
+        <v>0.9563063697192437</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9450385704018412</v>
+        <v>0.9442041576691724</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9664168538328775</v>
+        <v>0.9662486655182329</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>117815</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>94731</v>
+        <v>95458</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>147335</v>
+        <v>148268</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03467508576225804</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02788110127338435</v>
+        <v>0.02809504227481209</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04336332814405161</v>
+        <v>0.04363801519165089</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>181</v>
@@ -9092,19 +9092,19 @@
         <v>152111</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>131554</v>
+        <v>128541</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>178965</v>
+        <v>176673</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04195650809230342</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03628628425703694</v>
+        <v>0.03545531454316778</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04936353356664729</v>
+        <v>0.04873128466736911</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>275</v>
@@ -9113,19 +9113,19 @@
         <v>269926</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>239728</v>
+        <v>236356</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>309514</v>
+        <v>307631</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.03843387045243834</v>
+        <v>0.03843387045243835</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0341340879324009</v>
+        <v>0.03365402572286653</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04407063132243794</v>
+        <v>0.04380254174236595</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3279863</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3250343</v>
+        <v>3249410</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3302947</v>
+        <v>3302220</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9653249142377419</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9566366718559484</v>
+        <v>0.9563619848083492</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9721188987266161</v>
+        <v>0.9719049577251879</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5036</v>
@@ -9163,19 +9163,19 @@
         <v>3473337</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3446483</v>
+        <v>3448775</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3493894</v>
+        <v>3496907</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9580434919076964</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9506364664333525</v>
+        <v>0.9512687153326307</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9637137157429633</v>
+        <v>0.964544685456832</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8195</v>
@@ -9184,19 +9184,19 @@
         <v>6753199</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6713611</v>
+        <v>6715494</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6783397</v>
+        <v>6786769</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9615661295475616</v>
+        <v>0.9615661295475617</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.955929368677562</v>
+        <v>0.956197458257634</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9658659120675985</v>
+        <v>0.9663459742771333</v>
       </c>
     </row>
     <row r="30">
